--- a/dadosficticios.xlsx
+++ b/dadosficticios.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noite\Documents\GitHub\VCCorp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4D614C-E74E-4DB7-92D1-684AC27F5B57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE173C-8B0F-4792-B479-061C06ED3F44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dadosficticios" sheetId="1" r:id="rId1"/>
+    <sheet name="alunos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,8 +557,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,11 +914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1002,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>